--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD234F59-62C6-4D08-A91D-16BFB7A56684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FE6C7-FCC6-4BE9-B3F2-08B56AFB58EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
-    <t>Параметры</t>
-  </si>
-  <si>
     <t>https://www.plitkanadom.ru</t>
   </si>
   <si>
@@ -217,13 +206,16 @@
   </si>
   <si>
     <t>https://www.bestceramic.ru/goods/kanon_1d_900kh300</t>
+  </si>
+  <si>
+    <t>Сайты:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -250,16 +242,42 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -267,21 +285,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -674,268 +736,1837 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C00229-B2A9-4DBE-B1BC-3337D2815182}">
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" customWidth="1"/>
-    <col min="2" max="2" width="121.5703125" customWidth="1"/>
-    <col min="3" max="4" width="89.7109375" customWidth="1"/>
-    <col min="5" max="5" width="111.140625" customWidth="1"/>
-    <col min="6" max="6" width="76.28515625" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.42578125" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="12" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+    </row>
+    <row r="10" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+    </row>
+    <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+    </row>
+    <row r="12" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+    </row>
+    <row r="13" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1"/>
-    <hyperlink ref="M1" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="M4" r:id="rId4"/>
-    <hyperlink ref="J5" r:id="rId5"/>
-    <hyperlink ref="L5" r:id="rId6"/>
-    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{8C256671-5E91-40ED-A152-E3DF17890242}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{A6CB0381-0DFA-4D6A-8F78-D32DDCCC286C}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{AA5EF2D4-F773-4302-B975-5FA8F9CDAD6B}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{61F8C3DB-3AF1-44E8-9D23-4AFCE56688A7}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{5CEA382A-46C9-4C79-888F-9D8AA5863CC5}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{F81A650C-AF80-477C-8C00-3A601C53AC71}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{92941803-1DEC-4D9F-939E-7B5AE7A4B5E3}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{58DA0EFC-F19F-413D-BF9B-5C9434FA4B41}"/>
   </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FE6C7-FCC6-4BE9-B3F2-08B56AFB58EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E742CD-296A-417D-9430-3E9D37ECFBEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -740,7 +740,7 @@
   <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E742CD-296A-417D-9430-3E9D37ECFBEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE9536C-A8F4-4104-BF6C-A33AFA60E2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -112,15 +112,9 @@
     <t>https://santehnika-online.ru/product/plitka_nastennaya_azori_eclipse_indigo_glyantsevaya/351699/</t>
   </si>
   <si>
-    <t>https://otdelkino.ru/kerama/product/keramicheskaya-plitka-azori-eclipse-nastennaya-indigo-20-1kh50-5/?ysclid=m16gfth9uy350611546</t>
-  </si>
-  <si>
     <t>https://plitka-sdvk.ru/Plitka/Azori/Eclipse-19321/eclipse-plitka-nastennaya-indigo-201kh505/</t>
   </si>
   <si>
-    <t>https://3dplitka.ru/product-354352/?ysclid=m16gn7vtnt137612254</t>
-  </si>
-  <si>
     <t>https://www.plitkaneo.ru/catalog/plitka-nastennaya-eclipse-indigo/</t>
   </si>
   <si>
@@ -133,12 +127,6 @@
     <t>https://mnogoplitki.com/catalog/goods/walltile/nastennaya-plitka-azori-505611101-eclipse-indigo-20-1x50-5-sinyaya-glyantsevaya-pod-kamen/</t>
   </si>
   <si>
-    <t>https://keram.ru/product/eclipse-indigo/?ysclid=m17fd68kod546134601&amp;utm_referrer=https:%2F%2Fkeram.ru%2Fproduct%2Feclipse-indigo%2F%3Fysclid%3Dm17fd68kod546134600</t>
-  </si>
-  <si>
-    <t>https://lemanapro.ru/product/plitka-nastennaya-azori-eclipse-indigo-201x505-sinyaya-152m2-90430676/?utm_referrer=https%3A%2F%2Fya.ru%2F</t>
-  </si>
-  <si>
     <t>Equipe Artisan 24464 White Настенная плитка 6,5х20 см</t>
   </si>
   <si>
@@ -151,15 +139,9 @@
     <t>https://www.keramogranit.ru/brands/equipe-ceramicas/artisan-equipe/nastennaya-plitca-artisan-white-24464/</t>
   </si>
   <si>
-    <t>https://otdelkino.ru/kerama/product/keramicheskaya-plitka-equipe-artisan-24464-white-6-5x20/?ysclid=m16gvlihts523749769</t>
-  </si>
-  <si>
     <t>https://plitka-sdvk.ru/Plitka/EQUIPE/Artisan-22752/plitka-nastennaya-white-65-200x65/</t>
   </si>
   <si>
-    <t>https://3dplitka.ru/product-469353/?ysclid=m16gy85bef444037756</t>
-  </si>
-  <si>
     <t>https://www.bestceramic.ru/goods/24464-artisan-white-65x20</t>
   </si>
   <si>
@@ -209,6 +191,24 @@
   </si>
   <si>
     <t>Сайты:</t>
+  </si>
+  <si>
+    <t>https://keram.ru/product/eclipse-indigo/</t>
+  </si>
+  <si>
+    <t>https://lemanapro.ru/product/plitka-nastennaya-azori-eclipse-indigo-201x505-sinyaya-152m2-90430676/</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-469353/</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-354352/</t>
+  </si>
+  <si>
+    <t>https://otdelkino.ru/kerama/product/keramicheskaya-plitka-equipe-artisan-24464-white-6-5x20/</t>
+  </si>
+  <si>
+    <t>https://otdelkino.ru/kerama/product/keramicheskaya-plitka-azori-eclipse-nastennaya-indigo-20-1kh50-5/</t>
   </si>
 </sst>
 </file>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C00229-B2A9-4DBE-B1BC-3337D2815182}">
   <dimension ref="A1:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -753,7 +753,7 @@
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
@@ -765,13 +765,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -824,13 +824,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -883,11 +883,11 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -989,15 +989,15 @@
       <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
+      <c r="D5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1047,14 +1047,14 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1103,15 +1103,15 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1161,14 +1161,14 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1218,14 +1218,14 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1275,10 +1275,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1330,10 +1330,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1380,11 +1380,11 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="8" t="s">
-        <v>37</v>
+      <c r="D12" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
+      <c r="D13" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2566,6 +2566,11 @@
     <hyperlink ref="E12" r:id="rId6" xr:uid="{F81A650C-AF80-477C-8C00-3A601C53AC71}"/>
     <hyperlink ref="F13" r:id="rId7" xr:uid="{92941803-1DEC-4D9F-939E-7B5AE7A4B5E3}"/>
     <hyperlink ref="F8" r:id="rId8" xr:uid="{58DA0EFC-F19F-413D-BF9B-5C9434FA4B41}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{23380536-4C17-4BF2-9346-FEEC7BA53F91}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{37BA6418-B597-4E0B-AF0D-D2991AE034EB}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{AF26C437-181C-498E-B9E8-8C9342F12174}"/>
+    <hyperlink ref="E5" r:id="rId12" xr:uid="{948D84F6-4724-4F39-9FE9-94AB4E4F5107}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{CA76AEE8-E004-43F3-B0E5-FD5A35153F72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE9536C-A8F4-4104-BF6C-A33AFA60E2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00C298-6BF4-4951-ACA8-10B5BA7250DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>https://www.plitkanadom.ru</t>
   </si>
@@ -70,15 +70,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>class="plate__price"</t>
-  </si>
-  <si>
-    <t>div class="price"</t>
-  </si>
-  <si>
-    <t>div class="s-card__pay-price"</t>
-  </si>
-  <si>
     <t>name_attr</t>
   </si>
   <si>
@@ -209,6 +200,21 @@
   </si>
   <si>
     <t>https://otdelkino.ru/kerama/product/keramicheskaya-plitka-azori-eclipse-nastennaya-indigo-20-1kh50-5/</t>
+  </si>
+  <si>
+    <t>goods-card__price-text</t>
+  </si>
+  <si>
+    <t>plate__price</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>s-card__pay-price</t>
+  </si>
+  <si>
+    <t>p1p5g0yu_pdp</t>
   </si>
 </sst>
 </file>
@@ -318,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -327,7 +333,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -739,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C00229-B2A9-4DBE-B1BC-3337D2815182}">
   <dimension ref="A1:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -753,25 +758,25 @@
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -814,23 +819,23 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>20</v>
+      <c r="C2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -873,21 +878,21 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -930,15 +935,15 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -983,21 +988,21 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>61</v>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1040,21 +1045,21 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1097,21 +1102,21 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>59</v>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1154,21 +1159,21 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="9" t="s">
-        <v>46</v>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1211,21 +1216,21 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1268,17 +1273,17 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="C10" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1323,17 +1328,17 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1378,13 +1383,17 @@
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
-        <v>57</v>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1429,14 +1438,18 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
-        <v>58</v>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1478,8 +1491,8 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1523,8 +1536,8 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1568,8 +1581,8 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1613,8 +1626,8 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1658,8 +1671,8 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1703,8 +1716,8 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1748,8 +1761,8 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1793,8 +1806,8 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1838,8 +1851,8 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1883,8 +1896,8 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1928,8 +1941,8 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1973,8 +1986,8 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2018,8 +2031,8 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2063,8 +2076,8 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2108,8 +2121,8 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2153,8 +2166,8 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2198,8 +2211,8 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2243,8 +2256,8 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2288,8 +2301,8 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2333,8 +2346,8 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2378,8 +2391,8 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2423,8 +2436,8 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2468,8 +2481,8 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2513,8 +2526,8 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2571,7 +2584,10 @@
     <hyperlink ref="D7" r:id="rId11" xr:uid="{AF26C437-181C-498E-B9E8-8C9342F12174}"/>
     <hyperlink ref="E5" r:id="rId12" xr:uid="{948D84F6-4724-4F39-9FE9-94AB4E4F5107}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{CA76AEE8-E004-43F3-B0E5-FD5A35153F72}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{50BEF047-6B97-4CA2-A1E2-CA6CECD462E1}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{795EDB8A-4314-45E6-B228-DD125C02D97F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis2\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00C298-6BF4-4951-ACA8-10B5BA7250DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED741E3-05A1-40DD-97A9-38C1C642EEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis2\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED741E3-05A1-40DD-97A9-38C1C642EEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2D97C-B432-4F18-9317-85FD9C9E6192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>https://www.plitkanadom.ru</t>
   </si>
@@ -215,6 +215,45 @@
   </si>
   <si>
     <t>p1p5g0yu_pdp</t>
+  </si>
+  <si>
+    <t>Global Tile Antares Серый Матовый Керамогранит 30x60 см</t>
+  </si>
+  <si>
+    <t>https://skladplitka.ru</t>
+  </si>
+  <si>
+    <t>https://plitkazakaz.ru</t>
+  </si>
+  <si>
+    <t>https://plitkazakaz.ru/shop/keramogranit/keramogranit-global-tile-antares/keramogranit-global-tile-antares-seryj-30x60/</t>
+  </si>
+  <si>
+    <t>https://skladplitka.ru/shop/keramogranit/keramogranit-global-tile-antares/keramogranit-global-tile-antares-seryj-30x60/</t>
+  </si>
+  <si>
+    <t>https://plitkazakaz.ru/shop/plitka-dlya-vannoj/plitka-dlya-vannoj-azori-eclipse-rossiya/plitka-nastennaya-azori-eclipse-indigo-rossiya/</t>
+  </si>
+  <si>
+    <t>https://plitkazakaz.ru/shop/plitka-dlya-vannoj/plitka-dlya-vannoj-equipe-artisan-ispaniya/plitka-nastennaya-equipe-artisan-white-65-ispaniya/</t>
+  </si>
+  <si>
+    <t>https://skladplitka.ru/shop/nastennaya-plitka/plitka-dlya-vannoj-equipe-artisan/plitka-nastennaya-equipe-artisan-white-65/</t>
+  </si>
+  <si>
+    <t>https://plitkazakaz.ru/shop/plitka-dlya-vannoj/plitka-dlya-vannoj-keramin-kanon-belarus/plitka-nastennaya-keramin-kanon-1-d-belarus/</t>
+  </si>
+  <si>
+    <t>https://plitka-sdvk.ru/Plitka/Global-Tile/Antares-45074/gt225vg-keramogranit-antares-gt-ser-30x60-15832-600x300/</t>
+  </si>
+  <si>
+    <t>https://www.bestceramic.ru/goods/antares_seryy_30x60</t>
+  </si>
+  <si>
+    <t>https://www.plitkanadom.ru/collections/rossiiskaya-plitka/global-tile/antares/global-tile-antares-seryy-matovyy-keramogranit-30x60-sm</t>
+  </si>
+  <si>
+    <t>https://lemanapro.ru/product/keramogranit-global-tile-antares-gt225vg-30x60-91821910/</t>
   </si>
 </sst>
 </file>
@@ -324,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,6 +375,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -745,7 +785,7 @@
   <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -778,7 +818,9 @@
       <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -837,7 +879,9 @@
       <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -875,7 +919,7 @@
       <c r="AQ2" s="1"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1061,7 +1105,9 @@
       <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1232,7 +1278,9 @@
       <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1452,7 +1500,9 @@
         <v>44</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1490,14 +1540,20 @@
       <c r="AQ13" s="1"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1535,14 +1591,24 @@
       <c r="AQ14" s="1"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2586,8 +2652,20 @@
     <hyperlink ref="D5" r:id="rId13" xr:uid="{CA76AEE8-E004-43F3-B0E5-FD5A35153F72}"/>
     <hyperlink ref="D9" r:id="rId14" xr:uid="{50BEF047-6B97-4CA2-A1E2-CA6CECD462E1}"/>
     <hyperlink ref="D11" r:id="rId15" xr:uid="{795EDB8A-4314-45E6-B228-DD125C02D97F}"/>
+    <hyperlink ref="A15" r:id="rId16" xr:uid="{DA1A10BE-CDD7-41AE-A68A-B137722AB6B2}"/>
+    <hyperlink ref="H15" r:id="rId17" xr:uid="{4AF390CE-2FFE-407A-9A9F-4621178FA75F}"/>
+    <hyperlink ref="H14" r:id="rId18" xr:uid="{1A29CE91-40E1-4DE0-8B2A-C72F0B271A56}"/>
+    <hyperlink ref="D15" r:id="rId19" xr:uid="{954B3AFD-C766-452F-9212-CD6E635BF247}"/>
+    <hyperlink ref="E15" r:id="rId20" xr:uid="{68F12C1E-DF1B-4555-A604-25EE3BF92322}"/>
+    <hyperlink ref="E14" r:id="rId21" xr:uid="{5271C350-4D2F-46B9-9EB3-C2F6B71BDB75}"/>
+    <hyperlink ref="G15" r:id="rId22" xr:uid="{8D6229C4-FBD8-4D15-951C-2F81D77FB734}"/>
+    <hyperlink ref="A3" r:id="rId23" xr:uid="{3B564BEC-D6F5-46D1-B841-A0B9655FAEB7}"/>
+    <hyperlink ref="H6" r:id="rId24" xr:uid="{7FB178DD-0FD4-4158-97A3-A7FE433C97C2}"/>
+    <hyperlink ref="H9" r:id="rId25" xr:uid="{0C8C9FAA-44A1-4ECD-BEFB-5DC15464BF9D}"/>
+    <hyperlink ref="H2" r:id="rId26" xr:uid="{3C26DB9C-2BA8-4721-A9D9-76E786A54EC8}"/>
+    <hyperlink ref="H13" r:id="rId27" xr:uid="{F16480E7-56F6-4D66-8D67-2E83E0E9CD70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB32EEE-F4C6-467C-BFA4-D66604621A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0519E0-610B-427C-BE1F-2188F3FCCAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,16 +263,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -356,20 +350,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -780,13 +773,13 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="12" width="39.140625" customWidth="1"/>
   </cols>
@@ -828,10 +821,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -861,10 +854,10 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -890,10 +883,10 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1"/>
@@ -915,10 +908,10 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -944,10 +937,10 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -975,10 +968,10 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1004,10 +997,10 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1033,10 +1026,10 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1064,10 +1057,10 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1087,14 +1080,14 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1114,17 +1107,17 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1142,16 +1135,16 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1"/>
@@ -1171,13 +1164,13 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="1"/>
@@ -1198,16 +1191,16 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1229,9 +1222,9 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1246,9 +1239,9 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1263,9 +1256,9 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1280,9 +1273,9 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1297,9 +1290,9 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1314,9 +1307,9 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1331,9 +1324,9 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1348,9 +1341,9 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1365,9 +1358,9 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1382,9 +1375,9 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1399,9 +1392,9 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1416,9 +1409,9 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1433,9 +1426,9 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1450,9 +1443,9 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1467,9 +1460,9 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1484,9 +1477,9 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1501,9 +1494,9 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1518,9 +1511,9 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1535,9 +1528,9 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1552,9 +1545,9 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1569,9 +1562,9 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1586,9 +1579,9 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0519E0-610B-427C-BE1F-2188F3FCCAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31A89E1-0179-4705-B108-D37D4C2877A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>https://www.plitkanadom.ru</t>
   </si>
@@ -181,9 +181,6 @@
     <t>https://www.bestceramic.ru/goods/kanon_1d_900kh300</t>
   </si>
   <si>
-    <t>Сайты:</t>
-  </si>
-  <si>
     <t>https://keram.ru/product/eclipse-indigo/</t>
   </si>
   <si>
@@ -257,6 +254,12 @@
   </si>
   <si>
     <t>new_price</t>
+  </si>
+  <si>
+    <t>Закуп, руб</t>
+  </si>
+  <si>
+    <t>Наценка, %</t>
   </si>
 </sst>
 </file>
@@ -279,7 +282,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -363,6 +372,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -770,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C00229-B2A9-4DBE-B1BC-3337D2815182}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -781,13 +794,23 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="12" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="39.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="39.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="17" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
@@ -797,829 +820,1062 @@
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="11"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="11"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="11"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="11"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="11"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="11"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="11"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="11"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11" s="11"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
+      <c r="O12" s="11"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="12"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="12"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="13"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="13"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="11"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="11"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="11"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="11"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="11"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="11"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="11"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="11"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="11"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="11"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="11"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="11"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="11"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="11"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="11"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="11"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="11"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="11"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="11"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O36" s="11"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{AA5EF2D4-F773-4302-B975-5FA8F9CDAD6B}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{61F8C3DB-3AF1-44E8-9D23-4AFCE56688A7}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{5CEA382A-46C9-4C79-888F-9D8AA5863CC5}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{F81A650C-AF80-477C-8C00-3A601C53AC71}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{92941803-1DEC-4D9F-939E-7B5AE7A4B5E3}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{58DA0EFC-F19F-413D-BF9B-5C9434FA4B41}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{23380536-4C17-4BF2-9346-FEEC7BA53F91}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{37BA6418-B597-4E0B-AF0D-D2991AE034EB}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{AF26C437-181C-498E-B9E8-8C9342F12174}"/>
-    <hyperlink ref="E5" r:id="rId10" xr:uid="{948D84F6-4724-4F39-9FE9-94AB4E4F5107}"/>
-    <hyperlink ref="D5" r:id="rId11" xr:uid="{CA76AEE8-E004-43F3-B0E5-FD5A35153F72}"/>
-    <hyperlink ref="D9" r:id="rId12" xr:uid="{50BEF047-6B97-4CA2-A1E2-CA6CECD462E1}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{795EDB8A-4314-45E6-B228-DD125C02D97F}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{4AF390CE-2FFE-407A-9A9F-4621178FA75F}"/>
-    <hyperlink ref="H14" r:id="rId15" xr:uid="{1A29CE91-40E1-4DE0-8B2A-C72F0B271A56}"/>
-    <hyperlink ref="E15" r:id="rId16" xr:uid="{68F12C1E-DF1B-4555-A604-25EE3BF92322}"/>
-    <hyperlink ref="E14" r:id="rId17" xr:uid="{5271C350-4D2F-46B9-9EB3-C2F6B71BDB75}"/>
-    <hyperlink ref="G15" r:id="rId18" xr:uid="{8D6229C4-FBD8-4D15-951C-2F81D77FB734}"/>
-    <hyperlink ref="H6" r:id="rId19" xr:uid="{7FB178DD-0FD4-4158-97A3-A7FE433C97C2}"/>
-    <hyperlink ref="H9" r:id="rId20" xr:uid="{0C8C9FAA-44A1-4ECD-BEFB-5DC15464BF9D}"/>
-    <hyperlink ref="H2" r:id="rId21" xr:uid="{3C26DB9C-2BA8-4721-A9D9-76E786A54EC8}"/>
-    <hyperlink ref="H13" r:id="rId22" xr:uid="{F16480E7-56F6-4D66-8D67-2E83E0E9CD70}"/>
-    <hyperlink ref="D15" r:id="rId23" xr:uid="{BD9F4A78-2FF2-43B6-B792-DE8062C4B3F9}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{AA5EF2D4-F773-4302-B975-5FA8F9CDAD6B}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{61F8C3DB-3AF1-44E8-9D23-4AFCE56688A7}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{5CEA382A-46C9-4C79-888F-9D8AA5863CC5}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{F81A650C-AF80-477C-8C00-3A601C53AC71}"/>
+    <hyperlink ref="H14" r:id="rId5" xr:uid="{92941803-1DEC-4D9F-939E-7B5AE7A4B5E3}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{58DA0EFC-F19F-413D-BF9B-5C9434FA4B41}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{23380536-4C17-4BF2-9346-FEEC7BA53F91}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{37BA6418-B597-4E0B-AF0D-D2991AE034EB}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{AF26C437-181C-498E-B9E8-8C9342F12174}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{948D84F6-4724-4F39-9FE9-94AB4E4F5107}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{CA76AEE8-E004-43F3-B0E5-FD5A35153F72}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{50BEF047-6B97-4CA2-A1E2-CA6CECD462E1}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{795EDB8A-4314-45E6-B228-DD125C02D97F}"/>
+    <hyperlink ref="L16" r:id="rId14" xr:uid="{4AF390CE-2FFE-407A-9A9F-4621178FA75F}"/>
+    <hyperlink ref="L15" r:id="rId15" xr:uid="{1A29CE91-40E1-4DE0-8B2A-C72F0B271A56}"/>
+    <hyperlink ref="F16" r:id="rId16" xr:uid="{68F12C1E-DF1B-4555-A604-25EE3BF92322}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{5271C350-4D2F-46B9-9EB3-C2F6B71BDB75}"/>
+    <hyperlink ref="J16" r:id="rId18" xr:uid="{8D6229C4-FBD8-4D15-951C-2F81D77FB734}"/>
+    <hyperlink ref="L7" r:id="rId19" xr:uid="{7FB178DD-0FD4-4158-97A3-A7FE433C97C2}"/>
+    <hyperlink ref="L10" r:id="rId20" xr:uid="{0C8C9FAA-44A1-4ECD-BEFB-5DC15464BF9D}"/>
+    <hyperlink ref="L3" r:id="rId21" xr:uid="{3C26DB9C-2BA8-4721-A9D9-76E786A54EC8}"/>
+    <hyperlink ref="L14" r:id="rId22" xr:uid="{F16480E7-56F6-4D66-8D67-2E83E0E9CD70}"/>
+    <hyperlink ref="D16" r:id="rId23" xr:uid="{BD9F4A78-2FF2-43B6-B792-DE8062C4B3F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31A89E1-0179-4705-B108-D37D4C2877A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927A06D-943C-419B-898C-0A8CD7CD4446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>https://www.plitkanadom.ru</t>
   </si>
@@ -259,7 +267,22 @@
     <t>Закуп, руб</t>
   </si>
   <si>
-    <t>Наценка, %</t>
+    <t>Сайты:</t>
+  </si>
+  <si>
+    <t>Наценка1, %</t>
+  </si>
+  <si>
+    <t>Наценка2, %</t>
+  </si>
+  <si>
+    <t>Наценка3, %</t>
+  </si>
+  <si>
+    <t>Наценка4, %</t>
+  </si>
+  <si>
+    <t>Наценка5, %</t>
   </si>
 </sst>
 </file>
@@ -282,7 +305,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -374,8 +403,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -783,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C00229-B2A9-4DBE-B1BC-3337D2815182}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -804,13 +834,13 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="39.140625" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="39.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="17" width="39.140625" customWidth="1"/>
+    <col min="14" max="15" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
@@ -820,32 +850,40 @@
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>78</v>
       </c>
@@ -854,46 +892,30 @@
       <c r="D2" s="11">
         <v>1000</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="11">
         <v>1000</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="G2" s="12"/>
       <c r="H2" s="11">
         <v>1000</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="11">
         <v>1000</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="K2" s="12"/>
       <c r="L2" s="11">
         <v>1000</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="11">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -906,32 +928,30 @@
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="11"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -944,28 +964,26 @@
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="11"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="11"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -976,26 +994,24 @@
         <v>19</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1008,28 +1024,26 @@
       <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,30 +1056,28 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="11"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1078,28 +1090,26 @@
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="11"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1112,28 +1122,26 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="11"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1146,30 +1154,28 @@
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="11"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="11"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1182,26 +1188,24 @@
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="11"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1214,26 +1218,24 @@
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="11"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="11"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1246,26 +1248,24 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -1278,28 +1278,26 @@
       <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -1310,28 +1308,26 @@
         <v>77</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="11"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -1344,512 +1340,466 @@
       <c r="D16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="13"/>
+      <c r="M16" s="14"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="13"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="11"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="11"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="11"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="11"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="12"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="11"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="11"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="11"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="11"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="11"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="11"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="11"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="11"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="11"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="11"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="11"/>
+      <c r="M28" s="12"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="11"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="11"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="11"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="11"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="11"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="12"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="11"/>
+      <c r="M31" s="12"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="11"/>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="11"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="11"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="12"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="11"/>
+      <c r="M33" s="12"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="11"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="11"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="11"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="11"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="11"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="11"/>
+      <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="11"/>
+      <c r="M36" s="12"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="11"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="11"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="11"/>
+      <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="11"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="11"/>
+      <c r="M38" s="12"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="11"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927A06D-943C-419B-898C-0A8CD7CD4446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D3101D-18CC-4C36-A035-623F3296159E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C00229-B2A9-4DBE-B1BC-3337D2815182}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -890,23 +890,23 @@
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11">
-        <v>1000</v>
+        <v>797.94</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="11">
-        <v>1000</v>
+        <v>3918</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="11">
-        <v>1000</v>
+        <v>1322</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="11">
-        <v>1000</v>
+        <v>913</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="11">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="11"/>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D3101D-18CC-4C36-A035-623F3296159E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B178DC-6B2D-4395-8309-D610D604E805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -300,6 +300,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -386,11 +392,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -406,10 +413,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C00229-B2A9-4DBE-B1BC-3337D2815182}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -896,7 +905,7 @@
       <c r="F2" s="11">
         <v>3918</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="11">
         <v>1322</v>
       </c>
@@ -928,11 +937,13 @@
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="15">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
@@ -964,11 +975,11 @@
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1"/>
       <c r="I4" s="12"/>
       <c r="J4" s="1" t="s">
@@ -994,11 +1005,11 @@
         <v>19</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="1"/>
       <c r="I5" s="12"/>
       <c r="J5" s="1"/>
@@ -1024,11 +1035,11 @@
       <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1"/>
       <c r="I6" s="12"/>
       <c r="J6" s="1" t="s">
@@ -1056,11 +1067,11 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="1"/>
       <c r="I7" s="12"/>
       <c r="J7" s="1" t="s">
@@ -1090,11 +1101,11 @@
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="1"/>
       <c r="I8" s="12"/>
       <c r="J8" s="1" t="s">
@@ -1122,9 +1133,9 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1154,11 +1165,11 @@
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="12"/>
       <c r="J10" s="1" t="s">
@@ -1188,11 +1199,11 @@
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="1"/>
       <c r="I11" s="12"/>
       <c r="J11" s="1"/>
@@ -1218,11 +1229,11 @@
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1"/>
       <c r="I12" s="12"/>
       <c r="J12" s="1"/>
@@ -1248,11 +1259,11 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="1"/>
       <c r="I13" s="13"/>
       <c r="J13" s="1"/>
@@ -1278,9 +1289,9 @@
       <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1308,11 +1319,11 @@
         <v>77</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="1"/>
       <c r="I15" s="12"/>
       <c r="J15" s="1"/>
@@ -1340,11 +1351,11 @@
       <c r="D16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="1"/>
       <c r="I16" s="14"/>
       <c r="J16" s="1" t="s">
@@ -1366,9 +1377,9 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="1"/>
       <c r="I17" s="12"/>
       <c r="J17" s="1"/>
@@ -1386,9 +1397,9 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="1"/>
       <c r="I18" s="12"/>
       <c r="J18" s="1"/>
@@ -1406,9 +1417,9 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="1"/>
       <c r="I19" s="12"/>
       <c r="J19" s="1"/>
@@ -1426,9 +1437,9 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="1"/>
       <c r="I20" s="12"/>
       <c r="J20" s="1"/>
@@ -1446,9 +1457,9 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="1"/>
       <c r="I21" s="12"/>
       <c r="J21" s="1"/>
@@ -1466,9 +1477,9 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="1"/>
       <c r="I22" s="12"/>
       <c r="J22" s="1"/>
@@ -1486,9 +1497,9 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="1"/>
       <c r="I23" s="12"/>
       <c r="J23" s="1"/>
@@ -1506,9 +1517,9 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="1"/>
       <c r="I24" s="12"/>
       <c r="J24" s="1"/>
@@ -1526,9 +1537,9 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="1"/>
       <c r="I25" s="12"/>
       <c r="J25" s="1"/>
@@ -1546,9 +1557,9 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="1"/>
       <c r="I26" s="12"/>
       <c r="J26" s="1"/>
@@ -1566,9 +1577,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="1"/>
       <c r="I27" s="12"/>
       <c r="J27" s="1"/>
@@ -1586,9 +1597,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="1"/>
       <c r="I28" s="12"/>
       <c r="J28" s="1"/>
@@ -1606,9 +1617,9 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="1"/>
       <c r="I29" s="12"/>
       <c r="J29" s="1"/>
@@ -1626,9 +1637,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="1"/>
       <c r="I30" s="12"/>
       <c r="J30" s="1"/>
@@ -1646,9 +1657,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="1"/>
       <c r="I31" s="12"/>
       <c r="J31" s="1"/>
@@ -1666,9 +1677,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="1"/>
       <c r="I32" s="12"/>
       <c r="J32" s="1"/>
@@ -1686,9 +1697,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="1"/>
       <c r="I33" s="12"/>
       <c r="J33" s="1"/>
@@ -1706,9 +1717,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="1"/>
       <c r="I34" s="12"/>
       <c r="J34" s="1"/>
@@ -1726,9 +1737,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="1"/>
       <c r="I35" s="12"/>
       <c r="J35" s="1"/>
@@ -1746,9 +1757,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="15"/>
       <c r="H36" s="1"/>
       <c r="I36" s="12"/>
       <c r="J36" s="1"/>
@@ -1766,9 +1777,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="1"/>
       <c r="I37" s="12"/>
       <c r="J37" s="1"/>
@@ -1786,9 +1797,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="1"/>
       <c r="I38" s="12"/>
       <c r="J38" s="1"/>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B178DC-6B2D-4395-8309-D610D604E805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238EC10A-D32A-46FD-A214-530BD77A73BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -270,19 +270,19 @@
     <t>Сайты:</t>
   </si>
   <si>
-    <t>Наценка1, %</t>
-  </si>
-  <si>
-    <t>Наценка2, %</t>
-  </si>
-  <si>
-    <t>Наценка3, %</t>
-  </si>
-  <si>
-    <t>Наценка4, %</t>
-  </si>
-  <si>
-    <t>Наценка5, %</t>
+    <t>Нац.1, %</t>
+  </si>
+  <si>
+    <t>Нац.2, %</t>
+  </si>
+  <si>
+    <t>Нац.3, %</t>
+  </si>
+  <si>
+    <t>Нац.4, %</t>
+  </si>
+  <si>
+    <t>Нац.5, %</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Prices_Tiles_Competitors/sources_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/sources_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238EC10A-D32A-46FD-A214-530BD77A73BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66E8396-B5E6-4E97-BD8F-EFD9B9B673A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,7 +825,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1032,7 @@
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="15"/>
